--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="301">
   <si>
     <t>trade_time</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2018-09-10</t>
@@ -1371,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1421,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1471,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1521,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1571,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1621,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1671,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1721,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1771,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1821,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1871,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1921,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1971,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2021,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2071,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2121,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2171,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2221,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2271,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2321,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2371,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2421,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2471,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2521,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2571,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2621,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2671,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2721,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2771,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2821,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2871,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2921,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2971,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3021,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3071,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3121,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3171,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3221,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3271,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3321,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3371,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3421,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3471,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3521,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3571,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3621,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3721,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3771,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3821,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3871,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3921,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3971,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4021,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4071,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4121,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4171,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4221,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4271,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4321,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4371,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4421,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4471,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4521,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4571,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4621,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4671,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4721,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4771,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4821,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4871,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4921,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4971,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5021,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5071,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5121,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5171,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5221,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5271,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5321,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5371,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5421,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5471,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5571,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5621,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5671,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5721,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5771,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5821,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5871,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5921,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5971,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6021,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6071,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6121,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6321,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6371,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6421,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6471,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6521,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6571,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6621,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6671,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6721,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6771,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6821,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6871,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6921,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6971,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7021,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7071,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7121,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7171,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7221,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7271,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7321,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7371,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7421,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7721,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7771,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7921,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7971,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8021,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8071,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8221,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8271,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8321,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8371,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8421,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8471,7 +8474,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8521,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8971,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9021,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9071,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9121,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9171,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9221,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9271,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9321,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9371,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9421,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9471,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9571,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9621,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9671,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9721,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9771,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9821,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9871,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9921,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9971,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10021,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10071,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10121,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10171,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10221,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10271,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10321,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10371,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10421,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10471,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10521,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10571,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10621,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10671,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10721,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10771,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10821,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10871,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10921,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10971,7 +10974,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11021,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11071,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11121,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11171,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11221,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11271,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11321,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11371,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11421,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11471,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11521,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11571,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11621,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11671,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11721,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11771,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11821,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11871,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11921,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11971,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12021,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12071,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12121,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12171,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12221,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12271,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12321,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12371,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12421,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12471,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12521,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12571,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12621,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12671,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12721,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12771,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12821,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12871,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12921,7 +12924,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12971,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13021,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13071,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13121,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13171,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13221,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13271,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13321,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13371,7 +13374,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13521,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13571,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13585,10 +13588,10 @@
         <v>-75.13232104729289</v>
       </c>
       <c r="D247" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E247">
-        <v>-54.69176641117071</v>
+        <v>-57.84504286970177</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -13597,10 +13600,10 @@
         <v>0.1953723210472929</v>
       </c>
       <c r="H247">
-        <v>0.1818917664111707</v>
+        <v>0.1882450428697018</v>
       </c>
       <c r="I247">
-        <v>20.44055463612218</v>
+        <v>17.28727817759112</v>
       </c>
       <c r="J247">
         <v>2.160580208423209</v>
@@ -13612,16 +13615,16 @@
         <v>60.12</v>
       </c>
       <c r="M247">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N247">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O247">
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13635,10 +13638,10 @@
         <v>-75.12431099608503</v>
       </c>
       <c r="D248" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E248">
-        <v>-54.68476081526607</v>
+        <v>-57.83775577040005</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -13647,10 +13650,10 @@
         <v>0.195364310996085</v>
       </c>
       <c r="H248">
-        <v>0.1818847608152661</v>
+        <v>0.1882377557704001</v>
       </c>
       <c r="I248">
-        <v>20.43955018081896</v>
+        <v>17.28655522568498</v>
       </c>
       <c r="J248">
         <v>2.160452252333627</v>
@@ -13662,16 +13665,16 @@
         <v>60.12</v>
       </c>
       <c r="M248">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N248">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O248">
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13685,10 +13688,10 @@
         <v>-75.06442872911487</v>
       </c>
       <c r="D249" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E249">
-        <v>-54.63238774631052</v>
+        <v>-57.78327821282895</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -13697,10 +13700,10 @@
         <v>0.1953044287291149</v>
       </c>
       <c r="H249">
-        <v>0.1818323877463105</v>
+        <v>0.188183278212829</v>
       </c>
       <c r="I249">
-        <v>20.43204098280435</v>
+        <v>17.28115051628592</v>
       </c>
       <c r="J249">
         <v>2.159495666599279</v>
@@ -13712,16 +13715,16 @@
         <v>60.12</v>
       </c>
       <c r="M249">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N249">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O249">
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13735,10 +13738,10 @@
         <v>-74.99468361994272</v>
       </c>
       <c r="D250" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E250">
-        <v>-54.57138862926301</v>
+        <v>-57.71982798970828</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -13747,10 +13750,10 @@
         <v>0.1952346836199427</v>
       </c>
       <c r="H250">
-        <v>0.181771388629263</v>
+        <v>0.1881198279897083</v>
       </c>
       <c r="I250">
-        <v>20.42329499067971</v>
+        <v>17.27485563023444</v>
       </c>
       <c r="J250">
         <v>2.158381527475123</v>
@@ -13762,16 +13765,16 @@
         <v>60.12</v>
       </c>
       <c r="M250">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N250">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O250">
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13785,10 +13788,10 @@
         <v>-75.18220224049597</v>
       </c>
       <c r="D251" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E251">
-        <v>-54.73539253461909</v>
+        <v>-57.89042200632981</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13797,10 +13800,10 @@
         <v>0.195422202240496</v>
       </c>
       <c r="H251">
-        <v>0.1819353925346191</v>
+        <v>0.1882904220063298</v>
       </c>
       <c r="I251">
-        <v>20.44680970587688</v>
+        <v>17.29178023416615</v>
       </c>
       <c r="J251">
         <v>2.161377032595782</v>
@@ -13812,16 +13815,16 @@
         <v>60.12</v>
       </c>
       <c r="M251">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N251">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O251">
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13835,10 +13838,10 @@
         <v>-75.24751995059401</v>
       </c>
       <c r="D252" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E252">
-        <v>-54.79251944560738</v>
+        <v>-57.94984442789664</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13847,10 +13850,10 @@
         <v>0.195487519950594</v>
       </c>
       <c r="H252">
-        <v>0.1819925194456074</v>
+        <v>0.1883498444278967</v>
       </c>
       <c r="I252">
-        <v>20.45500050498664</v>
+        <v>17.29767552269738</v>
       </c>
       <c r="J252">
         <v>2.162420446495112</v>
@@ -13862,16 +13865,16 @@
         <v>60.12</v>
       </c>
       <c r="M252">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N252">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O252">
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13885,10 +13888,10 @@
         <v>-75.5115352516579</v>
       </c>
       <c r="D253" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E253">
-        <v>-55.02342739661774</v>
+        <v>-58.19003087191564</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13897,10 +13900,10 @@
         <v>0.1957515352516579</v>
       </c>
       <c r="H253">
-        <v>0.1822234273966178</v>
+        <v>0.1885900308719156</v>
       </c>
       <c r="I253">
-        <v>20.48810785504016</v>
+        <v>17.32150437974227</v>
       </c>
       <c r="J253">
         <v>2.166637943317219</v>
@@ -13912,16 +13915,16 @@
         <v>60.12</v>
       </c>
       <c r="M253">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N253">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O253">
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13935,10 +13938,10 @@
         <v>-75.93236912220945</v>
       </c>
       <c r="D254" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E254">
-        <v>-55.39148896870554</v>
+        <v>-58.57288213274485</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13947,10 +13950,10 @@
         <v>0.1961723691222095</v>
       </c>
       <c r="H254">
-        <v>0.1825914889687055</v>
+        <v>0.1889728821327449</v>
       </c>
       <c r="I254">
-        <v>20.54088015350391</v>
+        <v>17.3594869894646</v>
       </c>
       <c r="J254">
         <v>2.173360529108777</v>
@@ -13962,16 +13965,16 @@
         <v>60.12</v>
       </c>
       <c r="M254">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N254">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O254">
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13985,10 +13988,10 @@
         <v>-76.21565790921329</v>
       </c>
       <c r="D255" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E255">
-        <v>-55.6392535228343</v>
+        <v>-58.8306025228386</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -13997,10 +14000,10 @@
         <v>0.1964556579092133</v>
       </c>
       <c r="H255">
-        <v>0.1828392535228343</v>
+        <v>0.1892306025228386</v>
       </c>
       <c r="I255">
-        <v>20.57640438637899</v>
+        <v>17.38505538637469</v>
       </c>
       <c r="J255">
         <v>2.177885909092864</v>
@@ -14012,16 +14015,16 @@
         <v>60.12</v>
       </c>
       <c r="M255">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N255">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O255">
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14035,10 +14038,10 @@
         <v>-76.79774398245266</v>
       </c>
       <c r="D256" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E256">
-        <v>-56.14834637442943</v>
+        <v>-59.36015207349327</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -14047,10 +14050,10 @@
         <v>0.1970377439824527</v>
       </c>
       <c r="H256">
-        <v>0.1833483463744295</v>
+        <v>0.1897601520734933</v>
       </c>
       <c r="I256">
-        <v>20.64939760802323</v>
+        <v>17.43759190895939</v>
       </c>
       <c r="J256">
         <v>2.187184408665378</v>
@@ -14062,10 +14065,10 @@
         <v>60.12</v>
       </c>
       <c r="M256">
-        <v>54.75</v>
+        <v>56.95</v>
       </c>
       <c r="N256">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="O256">
         <v>1</v>

--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="302">
   <si>
     <t>trade_time</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2018-09-10</t>
@@ -1374,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1424,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1474,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1524,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1574,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1624,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1674,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1724,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1774,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1824,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1874,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1924,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1974,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2024,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2074,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2124,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2174,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2224,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2274,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2324,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2424,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2474,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2524,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2574,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2624,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2674,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2724,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2774,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2824,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2874,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2924,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3024,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3074,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3124,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3174,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3224,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3274,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3324,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3374,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3424,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3474,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3524,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3574,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3624,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3674,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3724,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3774,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3824,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3874,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3924,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3974,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4024,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4074,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4124,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4174,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4224,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4274,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4324,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4374,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4424,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4474,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4524,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4574,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4624,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4674,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4724,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4774,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4824,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4874,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4924,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4974,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5024,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5074,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5124,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5174,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5224,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5274,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5324,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5374,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5424,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5474,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5524,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5574,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5624,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5674,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5724,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5774,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5824,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5874,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5924,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5974,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6024,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6074,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6124,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6324,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6374,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6424,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6474,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6524,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6574,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6624,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6674,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6724,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6774,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6824,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6874,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6924,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6974,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7024,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7074,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7124,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7174,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7224,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7274,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7324,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7374,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7424,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7724,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7774,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7924,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7974,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8024,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8074,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8224,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8274,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8324,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8374,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8424,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8474,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8524,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8974,7 +8977,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9024,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9074,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9124,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9174,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9224,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9274,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9324,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9374,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9424,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9474,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9574,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9624,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9674,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9724,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9774,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9824,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9874,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9924,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9974,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10024,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10074,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10124,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10174,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10224,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10274,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10324,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10374,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10424,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10474,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10524,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10574,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10624,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10674,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10724,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10774,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10824,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10874,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10924,7 +10927,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10974,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11024,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11074,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11124,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11174,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11224,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11274,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11324,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11374,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11424,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11474,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11524,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11574,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11624,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11674,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11724,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11774,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11824,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11874,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11924,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11974,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12024,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12074,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12124,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12174,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12224,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12274,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12324,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12374,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12424,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12474,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12524,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12574,7 +12577,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12624,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12674,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12724,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12774,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12824,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12874,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12924,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12974,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13024,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13074,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13124,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13174,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13224,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13274,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13324,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13374,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13524,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13574,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13624,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13638,10 +13641,10 @@
         <v>-75.12431099608503</v>
       </c>
       <c r="D248" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E248">
-        <v>-57.83775577040005</v>
+        <v>-56.45532613068309</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -13650,10 +13653,10 @@
         <v>0.195364310996085</v>
       </c>
       <c r="H248">
-        <v>0.1882377557704001</v>
+        <v>0.1855153261306831</v>
       </c>
       <c r="I248">
-        <v>17.28655522568498</v>
+        <v>18.66898486540194</v>
       </c>
       <c r="J248">
         <v>2.160452252333627</v>
@@ -13665,16 +13668,16 @@
         <v>60.12</v>
       </c>
       <c r="M248">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N248">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O248">
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13688,10 +13691,10 @@
         <v>-75.06442872911487</v>
       </c>
       <c r="D249" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E249">
-        <v>-57.78327821282895</v>
+        <v>-56.40175732955963</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -13700,10 +13703,10 @@
         <v>0.1953044287291149</v>
       </c>
       <c r="H249">
-        <v>0.188183278212829</v>
+        <v>0.1854617573295597</v>
       </c>
       <c r="I249">
-        <v>17.28115051628592</v>
+        <v>18.66267139955524</v>
       </c>
       <c r="J249">
         <v>2.159495666599279</v>
@@ -13715,16 +13718,16 @@
         <v>60.12</v>
       </c>
       <c r="M249">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N249">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O249">
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13738,10 +13741,10 @@
         <v>-74.99468361994272</v>
       </c>
       <c r="D250" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E250">
-        <v>-57.71982798970828</v>
+        <v>-56.33936553860691</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -13750,10 +13753,10 @@
         <v>0.1952346836199427</v>
       </c>
       <c r="H250">
-        <v>0.1881198279897083</v>
+        <v>0.1853993655386069</v>
       </c>
       <c r="I250">
-        <v>17.27485563023444</v>
+        <v>18.65531808133581</v>
       </c>
       <c r="J250">
         <v>2.158381527475123</v>
@@ -13765,16 +13768,16 @@
         <v>60.12</v>
       </c>
       <c r="M250">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N250">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O250">
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13788,10 +13791,10 @@
         <v>-75.18220224049597</v>
       </c>
       <c r="D251" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E251">
-        <v>-57.89042200632981</v>
+        <v>-56.50711382536382</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13800,10 +13803,10 @@
         <v>0.195422202240496</v>
       </c>
       <c r="H251">
-        <v>0.1882904220063298</v>
+        <v>0.1855671138253638</v>
       </c>
       <c r="I251">
-        <v>17.29178023416615</v>
+        <v>18.67508841513215</v>
       </c>
       <c r="J251">
         <v>2.161377032595782</v>
@@ -13815,16 +13818,16 @@
         <v>60.12</v>
       </c>
       <c r="M251">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N251">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O251">
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13838,10 +13841,10 @@
         <v>-75.24751995059401</v>
       </c>
       <c r="D252" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E252">
-        <v>-57.94984442789664</v>
+        <v>-56.56554500372627</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13850,10 +13853,10 @@
         <v>0.195487519950594</v>
       </c>
       <c r="H252">
-        <v>0.1883498444278967</v>
+        <v>0.1856255450037263</v>
       </c>
       <c r="I252">
-        <v>17.29767552269738</v>
+        <v>18.68197494686774</v>
       </c>
       <c r="J252">
         <v>2.162420446495112</v>
@@ -13865,16 +13868,16 @@
         <v>60.12</v>
       </c>
       <c r="M252">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N252">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O252">
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13888,10 +13891,10 @@
         <v>-75.5115352516579</v>
       </c>
       <c r="D253" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E253">
-        <v>-58.19003087191564</v>
+        <v>-56.80172482576427</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13900,10 +13903,10 @@
         <v>0.1957515352516579</v>
       </c>
       <c r="H253">
-        <v>0.1885900308719156</v>
+        <v>0.1858617248257643</v>
       </c>
       <c r="I253">
-        <v>17.32150437974227</v>
+        <v>18.70981042589364</v>
       </c>
       <c r="J253">
         <v>2.166637943317219</v>
@@ -13915,16 +13918,16 @@
         <v>60.12</v>
       </c>
       <c r="M253">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N253">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O253">
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13938,10 +13941,10 @@
         <v>-75.93236912220945</v>
       </c>
       <c r="D254" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E254">
-        <v>-58.57288213274485</v>
+        <v>-57.17818963009151</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13950,10 +13953,10 @@
         <v>0.1961723691222095</v>
       </c>
       <c r="H254">
-        <v>0.1889728821327449</v>
+        <v>0.1862381896300915</v>
       </c>
       <c r="I254">
-        <v>17.3594869894646</v>
+        <v>18.75417949211794</v>
       </c>
       <c r="J254">
         <v>2.173360529108777</v>
@@ -13965,16 +13968,16 @@
         <v>60.12</v>
       </c>
       <c r="M254">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N254">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O254">
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13988,10 +13991,10 @@
         <v>-76.21565790921329</v>
       </c>
       <c r="D255" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E255">
-        <v>-58.8306025228386</v>
+        <v>-57.43161090920037</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -14000,10 +14003,10 @@
         <v>0.1964556579092133</v>
       </c>
       <c r="H255">
-        <v>0.1892306025228386</v>
+        <v>0.1864916109092004</v>
       </c>
       <c r="I255">
-        <v>17.38505538637469</v>
+        <v>18.78404700001292</v>
       </c>
       <c r="J255">
         <v>2.177885909092864</v>
@@ -14015,16 +14018,16 @@
         <v>60.12</v>
       </c>
       <c r="M255">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N255">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O255">
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14038,10 +14041,10 @@
         <v>-76.79774398245266</v>
       </c>
       <c r="D256" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E256">
-        <v>-59.36015207349327</v>
+        <v>-57.95232688526116</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -14050,10 +14053,10 @@
         <v>0.1970377439824527</v>
       </c>
       <c r="H256">
-        <v>0.1897601520734933</v>
+        <v>0.1870123268852612</v>
       </c>
       <c r="I256">
-        <v>17.43759190895939</v>
+        <v>18.8454170971915</v>
       </c>
       <c r="J256">
         <v>2.187184408665378</v>
@@ -14065,10 +14068,10 @@
         <v>60.12</v>
       </c>
       <c r="M256">
-        <v>56.95</v>
+        <v>56</v>
       </c>
       <c r="N256">
-        <v>65.2</v>
+        <v>64.53</v>
       </c>
       <c r="O256">
         <v>1</v>

--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="303">
   <si>
     <t>trade_time</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2018-09-10</t>
@@ -1377,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1427,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1477,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1527,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1577,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1627,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1677,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1727,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1777,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1827,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1877,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1927,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1977,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2027,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2077,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2127,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2177,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2227,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2277,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2327,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2377,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2427,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2477,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2527,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2577,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2627,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2677,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2727,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2777,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2827,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2877,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2927,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2977,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3077,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3127,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3177,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3227,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3277,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3327,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3427,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3477,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3527,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3577,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3627,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3677,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3727,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3777,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3827,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3877,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3927,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3977,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4027,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4077,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4127,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4177,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4227,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4277,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4327,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4377,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4427,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4477,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4527,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4577,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4627,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4677,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4727,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4777,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4827,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4877,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4927,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4977,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5027,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5077,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5127,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5177,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5227,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5277,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5327,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5377,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5427,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5477,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5527,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5577,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5627,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5677,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5727,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5777,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5827,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5877,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5927,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5977,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6027,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6077,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6127,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6327,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6377,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6427,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6477,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6527,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6577,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6627,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6677,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6727,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6777,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6827,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6877,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6927,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6977,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7027,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7077,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7127,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7177,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7227,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7277,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7327,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7377,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7427,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7727,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7777,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7927,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7977,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8027,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8077,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8227,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8277,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8327,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8377,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8427,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8477,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8527,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8977,7 +8980,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9027,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9077,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9127,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9177,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9227,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9277,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9327,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9377,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9427,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9477,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9577,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9627,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9677,7 +9680,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9727,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9777,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9827,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9877,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9927,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9977,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10027,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10077,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10127,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10177,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10227,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10277,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10327,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10377,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10427,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10477,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10527,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10577,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10627,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10677,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10727,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10777,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10827,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10877,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10927,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10977,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11027,7 +11030,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11077,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11127,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11177,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11227,7 +11230,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11277,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11327,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11377,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11427,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11477,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11527,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11577,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11627,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11677,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11727,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11777,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11827,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11877,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11927,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11977,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12027,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12077,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12127,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12177,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12227,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12277,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12327,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12377,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12427,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12477,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12527,7 +12530,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12577,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12627,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12677,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12727,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12777,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12827,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12877,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12927,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12977,7 +12980,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13027,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13077,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13127,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13177,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13227,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13277,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13327,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13377,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13527,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13577,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13627,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13677,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13691,10 +13694,10 @@
         <v>-75.06442872911487</v>
       </c>
       <c r="D249" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E249">
-        <v>-56.40175732955963</v>
+        <v>-59.01707647946866</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -13703,10 +13706,10 @@
         <v>0.1953044287291149</v>
       </c>
       <c r="H249">
-        <v>0.1854617573295597</v>
+        <v>0.1886770764794687</v>
       </c>
       <c r="I249">
-        <v>18.66267139955524</v>
+        <v>16.04735224964621</v>
       </c>
       <c r="J249">
         <v>2.159495666599279</v>
@@ -13718,16 +13721,16 @@
         <v>60.12</v>
       </c>
       <c r="M249">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N249">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O249">
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13741,10 +13744,10 @@
         <v>-74.99468361994272</v>
       </c>
       <c r="D250" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E250">
-        <v>-56.33936553860691</v>
+        <v>-58.95318060069833</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -13753,10 +13756,10 @@
         <v>0.1952346836199427</v>
       </c>
       <c r="H250">
-        <v>0.1853993655386069</v>
+        <v>0.1886131806006983</v>
       </c>
       <c r="I250">
-        <v>18.65531808133581</v>
+        <v>16.04150301924439</v>
       </c>
       <c r="J250">
         <v>2.158381527475123</v>
@@ -13768,16 +13771,16 @@
         <v>60.12</v>
       </c>
       <c r="M250">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N250">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O250">
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13791,10 +13794,10 @@
         <v>-75.18220224049597</v>
       </c>
       <c r="D251" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E251">
-        <v>-56.50711382536382</v>
+        <v>-59.12497281936812</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13803,10 +13806,10 @@
         <v>0.195422202240496</v>
       </c>
       <c r="H251">
-        <v>0.1855671138253638</v>
+        <v>0.1887849728193682</v>
       </c>
       <c r="I251">
-        <v>18.67508841513215</v>
+        <v>16.05722942112784</v>
       </c>
       <c r="J251">
         <v>2.161377032595782</v>
@@ -13818,16 +13821,16 @@
         <v>60.12</v>
       </c>
       <c r="M251">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N251">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O251">
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13841,10 +13844,10 @@
         <v>-75.24751995059401</v>
       </c>
       <c r="D252" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E252">
-        <v>-56.56554500372627</v>
+        <v>-59.18481260649467</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13853,10 +13856,10 @@
         <v>0.195487519950594</v>
       </c>
       <c r="H252">
-        <v>0.1856255450037263</v>
+        <v>0.1888448126064947</v>
       </c>
       <c r="I252">
-        <v>18.68197494686774</v>
+        <v>16.06270734409934</v>
       </c>
       <c r="J252">
         <v>2.162420446495112</v>
@@ -13868,16 +13871,16 @@
         <v>60.12</v>
       </c>
       <c r="M252">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N252">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O252">
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13891,10 +13894,10 @@
         <v>-75.5115352516579</v>
       </c>
       <c r="D253" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E253">
-        <v>-56.80172482576427</v>
+        <v>-59.42668604924252</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13903,10 +13906,10 @@
         <v>0.1957515352516579</v>
       </c>
       <c r="H253">
-        <v>0.1858617248257643</v>
+        <v>0.1890866860492425</v>
       </c>
       <c r="I253">
-        <v>18.70981042589364</v>
+        <v>16.08484920241538</v>
       </c>
       <c r="J253">
         <v>2.166637943317219</v>
@@ -13918,16 +13921,16 @@
         <v>60.12</v>
       </c>
       <c r="M253">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N253">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O253">
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13941,10 +13944,10 @@
         <v>-75.93236912220945</v>
       </c>
       <c r="D254" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E254">
-        <v>-57.17818963009151</v>
+        <v>-59.81222634438836</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13953,10 +13956,10 @@
         <v>0.1961723691222095</v>
       </c>
       <c r="H254">
-        <v>0.1862381896300915</v>
+        <v>0.1894722263443884</v>
       </c>
       <c r="I254">
-        <v>18.75417949211794</v>
+        <v>16.12014277782109</v>
       </c>
       <c r="J254">
         <v>2.173360529108777</v>
@@ -13968,16 +13971,16 @@
         <v>60.12</v>
       </c>
       <c r="M254">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N254">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O254">
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13991,10 +13994,10 @@
         <v>-76.21565790921329</v>
       </c>
       <c r="D255" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E255">
-        <v>-57.43161090920037</v>
+        <v>-60.07175688647575</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -14003,10 +14006,10 @@
         <v>0.1964556579092133</v>
       </c>
       <c r="H255">
-        <v>0.1864916109092004</v>
+        <v>0.1897317568864758</v>
       </c>
       <c r="I255">
-        <v>18.78404700001292</v>
+        <v>16.14390102273754</v>
       </c>
       <c r="J255">
         <v>2.177885909092864</v>
@@ -14018,16 +14021,16 @@
         <v>60.12</v>
       </c>
       <c r="M255">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N255">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O255">
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14041,10 +14044,10 @@
         <v>-76.79774398245266</v>
       </c>
       <c r="D256" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E256">
-        <v>-57.95232688526116</v>
+        <v>-60.60502583695941</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -14053,10 +14056,10 @@
         <v>0.1970377439824527</v>
       </c>
       <c r="H256">
-        <v>0.1870123268852612</v>
+        <v>0.1902650258369594</v>
       </c>
       <c r="I256">
-        <v>18.8454170971915</v>
+        <v>16.19271814549325</v>
       </c>
       <c r="J256">
         <v>2.187184408665378</v>
@@ -14068,10 +14071,10 @@
         <v>60.12</v>
       </c>
       <c r="M256">
-        <v>56</v>
+        <v>57.35</v>
       </c>
       <c r="N256">
-        <v>64.53</v>
+        <v>64.83</v>
       </c>
       <c r="O256">
         <v>1</v>

--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="304">
   <si>
     <t>trade_time</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2018-09-10</t>
@@ -1380,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1430,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1480,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1530,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1580,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1630,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1680,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1730,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1780,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1830,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1880,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1930,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1980,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2030,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2080,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2130,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2180,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2230,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2280,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2330,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2380,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2430,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2480,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2530,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2580,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2630,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2680,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2730,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2780,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2830,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2880,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2930,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2980,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3030,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3080,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3130,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3180,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3230,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3280,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3330,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3380,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3430,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3480,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3530,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3580,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3630,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3680,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3730,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3780,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3830,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3880,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3930,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3980,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4030,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4080,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4130,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4180,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4230,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4280,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4330,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4380,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4430,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4480,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4530,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4580,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4630,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4680,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4780,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4830,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4880,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4930,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4980,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5030,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5080,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5130,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5180,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5230,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5280,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5330,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5380,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5430,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5480,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5530,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5580,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5630,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5680,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5730,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5780,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5830,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5880,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5930,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5980,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6030,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6080,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6130,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6330,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6380,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6430,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6480,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6530,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6580,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6630,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6680,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6730,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6780,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6830,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6880,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6930,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6980,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7030,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7080,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7130,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7180,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7230,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7280,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7330,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7380,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7430,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7730,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7780,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7930,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7980,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8030,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8080,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8230,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8280,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8330,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8380,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8430,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8480,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8530,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8980,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9030,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9080,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9130,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9180,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9230,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9280,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9330,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9380,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9430,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9480,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9580,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9630,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9680,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9730,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9780,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9830,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9880,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9930,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9980,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10030,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10080,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10130,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10180,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10230,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10280,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10330,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10380,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10430,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10480,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10530,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10580,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10630,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10680,7 +10683,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10730,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10780,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10830,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10880,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10930,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10980,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11030,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11080,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11130,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11180,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11230,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11280,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11330,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11380,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11430,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11480,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11530,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11580,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11630,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11680,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11730,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11780,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11830,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11880,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11930,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11980,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12030,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12080,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12130,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12180,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12230,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12280,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12330,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12380,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12430,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12480,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12530,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12580,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12630,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12680,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12730,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12780,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12830,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12880,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12930,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12980,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13030,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13080,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13130,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13180,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13230,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13280,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13330,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13380,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13530,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13580,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13630,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13680,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13730,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13744,10 +13747,10 @@
         <v>-74.99468361994272</v>
       </c>
       <c r="D250" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E250">
-        <v>-58.95318060069833</v>
+        <v>-61.62000148861873</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -13756,10 +13759,10 @@
         <v>0.1952346836199427</v>
       </c>
       <c r="H250">
-        <v>0.1886131806006983</v>
+        <v>0.1997600014886187</v>
       </c>
       <c r="I250">
-        <v>16.04150301924439</v>
+        <v>13.37468213132399</v>
       </c>
       <c r="J250">
         <v>2.158381527475123</v>
@@ -13771,16 +13774,16 @@
         <v>60.12</v>
       </c>
       <c r="M250">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N250">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O250">
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13794,10 +13797,10 @@
         <v>-75.18220224049597</v>
       </c>
       <c r="D251" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E251">
-        <v>-59.12497281936812</v>
+        <v>-61.80137932367464</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13806,10 +13809,10 @@
         <v>0.195422202240496</v>
       </c>
       <c r="H251">
-        <v>0.1887849728193682</v>
+        <v>0.1999413793236746</v>
       </c>
       <c r="I251">
-        <v>16.05722942112784</v>
+        <v>13.38082291682133</v>
       </c>
       <c r="J251">
         <v>2.161377032595782</v>
@@ -13821,16 +13824,16 @@
         <v>60.12</v>
       </c>
       <c r="M251">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N251">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O251">
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13844,10 +13847,10 @@
         <v>-75.24751995059401</v>
       </c>
       <c r="D252" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E252">
-        <v>-59.18481260649467</v>
+        <v>-61.86455803527903</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13856,10 +13859,10 @@
         <v>0.195487519950594</v>
       </c>
       <c r="H252">
-        <v>0.1888448126064947</v>
+        <v>0.200004558035279</v>
       </c>
       <c r="I252">
-        <v>16.06270734409934</v>
+        <v>13.38296191531498</v>
       </c>
       <c r="J252">
         <v>2.162420446495112</v>
@@ -13871,16 +13874,16 @@
         <v>60.12</v>
       </c>
       <c r="M252">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N252">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O252">
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13894,10 +13897,10 @@
         <v>-75.5115352516579</v>
       </c>
       <c r="D253" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E253">
-        <v>-59.42668604924252</v>
+        <v>-62.11992746785762</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13906,10 +13909,10 @@
         <v>0.1957515352516579</v>
       </c>
       <c r="H253">
-        <v>0.1890866860492425</v>
+        <v>0.2002599274678576</v>
       </c>
       <c r="I253">
-        <v>16.08484920241538</v>
+        <v>13.39160778380028</v>
       </c>
       <c r="J253">
         <v>2.166637943317219</v>
@@ -13921,16 +13924,16 @@
         <v>60.12</v>
       </c>
       <c r="M253">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N253">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O253">
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13944,10 +13947,10 @@
         <v>-75.93236912220945</v>
       </c>
       <c r="D254" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E254">
-        <v>-59.81222634438836</v>
+        <v>-62.52698003753645</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13956,10 +13959,10 @@
         <v>0.1961723691222095</v>
       </c>
       <c r="H254">
-        <v>0.1894722263443884</v>
+        <v>0.2006669800375364</v>
       </c>
       <c r="I254">
-        <v>16.12014277782109</v>
+        <v>13.405389084673</v>
       </c>
       <c r="J254">
         <v>2.173360529108777</v>
@@ -13971,16 +13974,16 @@
         <v>60.12</v>
       </c>
       <c r="M254">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N254">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O254">
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13994,10 +13997,10 @@
         <v>-76.21565790921329</v>
       </c>
       <c r="D255" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E255">
-        <v>-60.07175688647575</v>
+        <v>-62.80099179557291</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -14006,10 +14009,10 @@
         <v>0.1964556579092133</v>
       </c>
       <c r="H255">
-        <v>0.1897317568864758</v>
+        <v>0.2009409917955729</v>
       </c>
       <c r="I255">
-        <v>16.14390102273754</v>
+        <v>13.41466611364038</v>
       </c>
       <c r="J255">
         <v>2.177885909092864</v>
@@ -14021,16 +14024,16 @@
         <v>60.12</v>
       </c>
       <c r="M255">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N255">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O255">
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14044,10 +14047,10 @@
         <v>-76.79774398245266</v>
       </c>
       <c r="D256" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E256">
-        <v>-60.60502583695941</v>
+        <v>-63.36401594468862</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -14056,10 +14059,10 @@
         <v>0.1970377439824527</v>
       </c>
       <c r="H256">
-        <v>0.1902650258369594</v>
+        <v>0.2015040159446886</v>
       </c>
       <c r="I256">
-        <v>16.19271814549325</v>
+        <v>13.43372803776404</v>
       </c>
       <c r="J256">
         <v>2.187184408665378</v>
@@ -14071,10 +14074,10 @@
         <v>60.12</v>
       </c>
       <c r="M256">
-        <v>57.35</v>
+        <v>60.55</v>
       </c>
       <c r="N256">
-        <v>64.83</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="O256">
         <v>1</v>

--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="305">
   <si>
     <t>trade_time</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2018-09-10</t>
@@ -1383,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1433,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1483,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1533,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1583,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1633,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1683,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1733,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1783,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1833,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1883,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1933,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1983,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2033,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2083,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2133,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2183,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2233,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2283,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2333,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2383,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2433,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2483,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2533,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2583,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2633,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2683,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2733,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2783,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2833,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2883,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2933,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2983,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3033,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3083,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3133,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3183,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3233,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3283,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3333,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3383,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3433,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3483,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3533,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3583,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3633,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3683,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3783,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3833,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3883,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3933,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3983,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4033,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4083,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4133,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4183,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4233,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4283,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4333,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4383,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4433,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4483,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4533,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4583,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4633,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4683,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4733,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4783,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4833,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4883,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4933,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4983,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5033,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5083,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5183,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5233,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5283,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5333,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5383,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5433,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5483,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5533,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5583,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5633,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5683,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5733,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5783,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5833,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5883,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5933,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5983,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6033,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6083,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6133,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6333,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6383,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6433,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6483,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6533,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6583,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6633,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6683,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6733,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6783,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6833,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6883,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6933,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7033,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7083,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7133,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7183,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7233,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7283,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7333,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7383,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7433,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7733,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7783,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7933,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7983,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8033,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8083,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8233,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8283,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8333,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8383,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8433,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8483,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8533,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8983,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9033,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9083,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9133,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9183,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9233,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9283,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9333,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9383,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9433,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9483,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9583,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9633,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9683,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9733,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9783,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9833,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9883,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9933,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9983,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10033,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10083,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10133,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10183,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10233,7 +10236,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10283,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10333,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10383,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10433,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10483,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10533,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10583,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10633,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10683,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10733,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10783,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10833,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10883,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10983,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11033,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11083,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11133,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11183,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11233,7 +11236,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11283,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11333,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11383,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11433,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11483,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11533,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11583,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11633,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11683,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11733,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11783,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11833,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11883,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11933,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11983,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12033,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12083,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12133,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12183,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12233,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12283,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12333,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12383,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12433,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12483,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12533,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12583,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12633,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12683,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12733,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12783,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12833,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12883,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12933,7 +12936,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12983,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13033,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13083,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13133,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13183,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13233,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13283,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13333,7 +13336,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13383,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13533,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13583,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13633,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13683,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13733,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13783,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13797,10 +13800,10 @@
         <v>-75.18220224049597</v>
       </c>
       <c r="D251" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E251">
-        <v>-61.80137932367464</v>
+        <v>-66.10109400894713</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13809,10 +13812,10 @@
         <v>0.195422202240496</v>
       </c>
       <c r="H251">
-        <v>0.1999413793236746</v>
+        <v>0.2135810940089471</v>
       </c>
       <c r="I251">
-        <v>13.38082291682133</v>
+        <v>9.081108231548839</v>
       </c>
       <c r="J251">
         <v>2.161377032595782</v>
@@ -13824,16 +13827,16 @@
         <v>60.12</v>
       </c>
       <c r="M251">
-        <v>60.55</v>
+        <v>64.7</v>
       </c>
       <c r="N251">
-        <v>69.06999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="O251">
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13847,10 +13850,10 @@
         <v>-75.24751995059401</v>
       </c>
       <c r="D252" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E252">
-        <v>-61.86455803527903</v>
+        <v>-66.16860288823376</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13859,10 +13862,10 @@
         <v>0.195487519950594</v>
       </c>
       <c r="H252">
-        <v>0.200004558035279</v>
+        <v>0.2136486028882338</v>
       </c>
       <c r="I252">
-        <v>13.38296191531498</v>
+        <v>9.078917062360247</v>
       </c>
       <c r="J252">
         <v>2.162420446495112</v>
@@ -13874,16 +13877,16 @@
         <v>60.12</v>
       </c>
       <c r="M252">
-        <v>60.55</v>
+        <v>64.7</v>
       </c>
       <c r="N252">
-        <v>69.06999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="O252">
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13897,10 +13900,10 @@
         <v>-75.5115352516579</v>
       </c>
       <c r="D253" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E253">
-        <v>-62.11992746785762</v>
+        <v>-66.4414749326241</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13909,10 +13912,10 @@
         <v>0.1957515352516579</v>
       </c>
       <c r="H253">
-        <v>0.2002599274678576</v>
+        <v>0.2139214749326241</v>
       </c>
       <c r="I253">
-        <v>13.39160778380028</v>
+        <v>9.0700603190338</v>
       </c>
       <c r="J253">
         <v>2.166637943317219</v>
@@ -13924,16 +13927,16 @@
         <v>60.12</v>
       </c>
       <c r="M253">
-        <v>60.55</v>
+        <v>64.7</v>
       </c>
       <c r="N253">
-        <v>69.06999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="O253">
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13947,10 +13950,10 @@
         <v>-75.93236912220945</v>
       </c>
       <c r="D254" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E254">
-        <v>-62.52698003753645</v>
+        <v>-66.87642623333788</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13959,10 +13962,10 @@
         <v>0.1961723691222095</v>
       </c>
       <c r="H254">
-        <v>0.2006669800375364</v>
+        <v>0.2143564262333379</v>
       </c>
       <c r="I254">
-        <v>13.405389084673</v>
+        <v>9.05594288887157</v>
       </c>
       <c r="J254">
         <v>2.173360529108777</v>
@@ -13974,16 +13977,16 @@
         <v>60.12</v>
       </c>
       <c r="M254">
-        <v>60.55</v>
+        <v>64.7</v>
       </c>
       <c r="N254">
-        <v>69.06999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="O254">
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13997,10 +14000,10 @@
         <v>-76.21565790921329</v>
       </c>
       <c r="D255" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E255">
-        <v>-62.80099179557291</v>
+        <v>-67.1692183183083</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -14009,10 +14012,10 @@
         <v>0.1964556579092133</v>
       </c>
       <c r="H255">
-        <v>0.2009409917955729</v>
+        <v>0.2146492183183083</v>
       </c>
       <c r="I255">
-        <v>13.41466611364038</v>
+        <v>9.046439590904995</v>
       </c>
       <c r="J255">
         <v>2.177885909092864</v>
@@ -14024,16 +14027,16 @@
         <v>60.12</v>
       </c>
       <c r="M255">
-        <v>60.55</v>
+        <v>64.7</v>
       </c>
       <c r="N255">
-        <v>69.06999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="O255">
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14047,10 +14050,10 @@
         <v>-76.79774398245266</v>
       </c>
       <c r="D256" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E256">
-        <v>-63.36401594468862</v>
+        <v>-67.77083124064994</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -14059,10 +14062,10 @@
         <v>0.1970377439824527</v>
       </c>
       <c r="H256">
-        <v>0.2015040159446886</v>
+        <v>0.2152508312406499</v>
       </c>
       <c r="I256">
-        <v>13.43372803776404</v>
+        <v>9.026912741802718</v>
       </c>
       <c r="J256">
         <v>2.187184408665378</v>
@@ -14074,10 +14077,10 @@
         <v>60.12</v>
       </c>
       <c r="M256">
-        <v>60.55</v>
+        <v>64.7</v>
       </c>
       <c r="N256">
-        <v>69.06999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="O256">
         <v>1</v>

--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="304">
   <si>
     <t>trade_time</t>
   </si>
@@ -520,6 +520,9 @@
     <t>2021-07-16</t>
   </si>
   <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
     <t>2018-09-10</t>
   </si>
   <si>
@@ -923,12 +926,6 @@
   </si>
   <si>
     <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>2021-01-15</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P256"/>
+  <dimension ref="A1:P253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1436,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1486,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1536,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1586,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1636,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1686,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1736,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1786,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1836,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1886,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1936,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1986,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2036,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2086,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2136,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2186,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2236,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2286,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2336,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2386,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2436,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2486,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2536,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2586,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2636,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2686,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2736,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2786,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2836,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2886,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2936,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2986,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3036,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3086,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3136,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3186,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3236,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3286,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3336,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3386,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3436,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3486,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3536,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3586,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3636,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3686,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3786,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3836,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3886,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3936,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3986,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4036,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4086,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4136,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4186,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4236,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4286,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4336,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4386,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4436,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4486,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4536,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4586,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4636,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4686,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4736,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4786,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4836,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4886,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4936,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4986,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5036,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5086,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5136,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5186,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5236,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5286,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5336,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5386,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5436,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5486,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5536,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5586,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5636,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5686,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5736,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5786,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5836,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5886,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5936,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5986,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6036,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6086,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6136,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6336,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6386,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6436,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6486,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6536,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6586,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6636,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6686,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6736,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6786,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6836,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6886,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6936,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6986,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7036,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7086,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7136,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7186,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7236,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7286,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7336,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7386,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7436,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7736,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7786,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7936,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7986,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8036,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8086,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8236,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8286,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8336,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8386,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8436,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8486,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8536,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8986,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9036,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9086,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9136,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9186,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9236,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9286,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9336,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9386,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9436,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9486,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9586,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9636,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9686,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9736,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9786,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9836,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9886,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9936,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9986,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10036,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10086,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10136,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10186,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10236,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10286,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10336,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10386,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10436,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10486,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10536,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10586,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10636,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10686,7 +10683,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10736,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10786,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10836,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10886,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10936,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10986,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11036,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11086,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11136,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11186,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11236,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11286,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11336,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11386,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11436,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11486,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11536,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11586,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11636,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11686,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11736,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11786,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11836,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11886,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11936,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11986,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12036,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12086,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12136,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12186,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12236,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12286,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12336,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12386,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12436,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12486,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12536,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12586,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12636,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12686,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12736,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12786,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12836,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12886,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12936,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12986,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13036,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13086,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13136,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13186,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13236,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13286,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13336,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13386,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13536,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13586,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13636,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13686,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13736,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13786,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13836,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13850,10 +13847,10 @@
         <v>-75.24751995059401</v>
       </c>
       <c r="D252" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E252">
-        <v>-66.16860288823376</v>
+        <v>-69.80780684819823</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13862,10 +13859,10 @@
         <v>0.195487519950594</v>
       </c>
       <c r="H252">
-        <v>0.2136486028882338</v>
+        <v>0.2193078068481982</v>
       </c>
       <c r="I252">
-        <v>9.078917062360247</v>
+        <v>5.439713102395785</v>
       </c>
       <c r="J252">
         <v>2.162420446495112</v>
@@ -13877,16 +13874,16 @@
         <v>60.12</v>
       </c>
       <c r="M252">
-        <v>64.7</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="N252">
-        <v>73.73999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="O252">
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13900,10 +13897,10 @@
         <v>-75.5115352516579</v>
       </c>
       <c r="D253" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E253">
-        <v>-66.4414749326241</v>
+        <v>-70.0897465107561</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13912,10 +13909,10 @@
         <v>0.1957515352516579</v>
       </c>
       <c r="H253">
-        <v>0.2139214749326241</v>
+        <v>0.2195897465107561</v>
       </c>
       <c r="I253">
-        <v>9.0700603190338</v>
+        <v>5.421788740901803</v>
       </c>
       <c r="J253">
         <v>2.166637943317219</v>
@@ -13927,166 +13924,16 @@
         <v>60.12</v>
       </c>
       <c r="M253">
-        <v>64.7</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="N253">
-        <v>73.73999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="O253">
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16">
-      <c r="A254" s="1">
-        <v>0</v>
-      </c>
-      <c r="B254" t="s">
-        <v>53</v>
-      </c>
-      <c r="C254">
-        <v>-75.93236912220945</v>
-      </c>
-      <c r="D254" t="s">
-        <v>167</v>
-      </c>
-      <c r="E254">
-        <v>-66.87642623333788</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>0.1961723691222095</v>
-      </c>
-      <c r="H254">
-        <v>0.2143564262333379</v>
-      </c>
-      <c r="I254">
-        <v>9.05594288887157</v>
-      </c>
-      <c r="J254">
-        <v>2.173360529108777</v>
-      </c>
-      <c r="K254">
-        <v>62.6</v>
-      </c>
-      <c r="L254">
-        <v>60.12</v>
-      </c>
-      <c r="M254">
-        <v>64.7</v>
-      </c>
-      <c r="N254">
-        <v>73.73999999999999</v>
-      </c>
-      <c r="O254">
-        <v>1</v>
-      </c>
-      <c r="P254" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16">
-      <c r="A255" s="1">
-        <v>0</v>
-      </c>
-      <c r="B255" t="s">
-        <v>53</v>
-      </c>
-      <c r="C255">
-        <v>-76.21565790921329</v>
-      </c>
-      <c r="D255" t="s">
-        <v>167</v>
-      </c>
-      <c r="E255">
-        <v>-67.1692183183083</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>0.1964556579092133</v>
-      </c>
-      <c r="H255">
-        <v>0.2146492183183083</v>
-      </c>
-      <c r="I255">
-        <v>9.046439590904995</v>
-      </c>
-      <c r="J255">
-        <v>2.177885909092864</v>
-      </c>
-      <c r="K255">
-        <v>62.6</v>
-      </c>
-      <c r="L255">
-        <v>60.12</v>
-      </c>
-      <c r="M255">
-        <v>64.7</v>
-      </c>
-      <c r="N255">
-        <v>73.73999999999999</v>
-      </c>
-      <c r="O255">
-        <v>1</v>
-      </c>
-      <c r="P255" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16">
-      <c r="A256" s="1">
-        <v>0</v>
-      </c>
-      <c r="B256" t="s">
-        <v>53</v>
-      </c>
-      <c r="C256">
-        <v>-76.79774398245266</v>
-      </c>
-      <c r="D256" t="s">
-        <v>167</v>
-      </c>
-      <c r="E256">
-        <v>-67.77083124064994</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>0.1970377439824527</v>
-      </c>
-      <c r="H256">
-        <v>0.2152508312406499</v>
-      </c>
-      <c r="I256">
-        <v>9.026912741802718</v>
-      </c>
-      <c r="J256">
-        <v>2.187184408665378</v>
-      </c>
-      <c r="K256">
-        <v>62.6</v>
-      </c>
-      <c r="L256">
-        <v>60.12</v>
-      </c>
-      <c r="M256">
-        <v>64.7</v>
-      </c>
-      <c r="N256">
-        <v>73.73999999999999</v>
-      </c>
-      <c r="O256">
-        <v>1</v>
-      </c>
-      <c r="P256" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-02196-600196.xlsx
+++ b/s60_signal/position-02196-600196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="303">
   <si>
     <t>trade_time</t>
   </si>
@@ -923,9 +923,6 @@
   </si>
   <si>
     <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:P252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13886,56 +13883,6 @@
         <v>302</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
-      <c r="A253" s="1">
-        <v>0</v>
-      </c>
-      <c r="B253" t="s">
-        <v>53</v>
-      </c>
-      <c r="C253">
-        <v>-75.5115352516579</v>
-      </c>
-      <c r="D253" t="s">
-        <v>168</v>
-      </c>
-      <c r="E253">
-        <v>-70.0897465107561</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>0.1957515352516579</v>
-      </c>
-      <c r="H253">
-        <v>0.2195897465107561</v>
-      </c>
-      <c r="I253">
-        <v>5.421788740901803</v>
-      </c>
-      <c r="J253">
-        <v>2.166637943317219</v>
-      </c>
-      <c r="K253">
-        <v>62.6</v>
-      </c>
-      <c r="L253">
-        <v>60.12</v>
-      </c>
-      <c r="M253">
-        <v>66.84999999999999</v>
-      </c>
-      <c r="N253">
-        <v>74.75</v>
-      </c>
-      <c r="O253">
-        <v>1</v>
-      </c>
-      <c r="P253" t="s">
-        <v>303</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
